--- a/贵州茅台.xlsx
+++ b/贵州茅台.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development\macd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58F26863-8837-4DDC-AD53-6C0E8A8C2739}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74E0C114-D4E5-489C-9085-64C6BFA20A9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{B4A62F2B-4AAF-4D78-B49F-495E071E95CA}"/>
+    <workbookView xWindow="300" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{56E255ED-CF9D-4825-85F3-AB8A06F014E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936EBA5D-3217-4CDA-849D-431E543E471A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C96F89-01C4-4BC1-9788-9A2BF9632E87}">
   <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
